--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -116,7 +116,37 @@
     <t>size bold wrap text merge</t>
   </si>
   <si>
-    <t>B7:C8</t>
+    <t>Privet</t>
+  </si>
+  <si>
+    <t>fontname</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>ri</t>
+    </r>
+    <r>
+      <t>vet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>font</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <color rgb="ff0000ff"/>
+        <sz val="20"/>
+      </rPr>
+      <t>name</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -130,7 +160,7 @@
     <numFmt numFmtId="168" formatCode="###,##0.000"/>
     <numFmt numFmtId="169" formatCode="yyyy.mm.dd"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1" rgb="ff000000"/>
@@ -184,6 +214,21 @@
     <font/>
     <font>
       <sz val="16"/>
+    </font>
+    <font>
+      <i val="true"/>
+    </font>
+    <font>
+      <u val="double"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <u val="double"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="ff0000ff"/>
+      <u val="double"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
@@ -421,6 +466,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
       <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
@@ -847,7 +898,13 @@
       </c>
       <c r="C7" s="38"/>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">

--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -47,16 +47,16 @@
     <t>bold</t>
   </si>
   <si>
-    <t>italic</t>
+    <t>bold italic</t>
   </si>
   <si>
     <t>strike</t>
   </si>
   <si>
-    <t>uline</t>
-  </si>
-  <si>
-    <t>uline2</t>
+    <t>single</t>
+  </si>
+  <si>
+    <t>double</t>
   </si>
   <si>
     <t>super</t>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Privet</t>
-  </si>
-  <si>
-    <t>fontname</t>
   </si>
   <si>
     <r>
@@ -127,6 +124,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
       </rPr>
       <t>ri</t>
@@ -136,14 +134,17 @@
     </r>
   </si>
   <si>
+    <t>fontname</t>
+  </si>
+  <si>
     <r>
       <t>font</t>
     </r>
     <r>
       <rPr>
         <u val="double"/>
-        <color rgb="ff0000ff"/>
-        <sz val="20"/>
+        <color rgb="000000ff"/>
+        <sz val="18"/>
       </rPr>
       <t>name</t>
     </r>
@@ -160,7 +161,7 @@
     <numFmt numFmtId="168" formatCode="###,##0.000"/>
     <numFmt numFmtId="169" formatCode="yyyy.mm.dd"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1" rgb="ff000000"/>
@@ -172,25 +173,47 @@
       <vertAlign val="baseline"/>
     </font>
     <font>
+      <color rgb="00ffff00"/>
+    </font>
+    <font>
       <name val="Times New Roman"/>
+      <color rgb="00ffff00"/>
     </font>
     <font>
       <sz val="20"/>
     </font>
-    <font/>
-    <font>
+    <font>
+      <b val="true"/>
+    </font>
+    <font>
+      <b val="true"/>
+    </font>
+    <font>
+      <b val="true"/>
       <i val="true"/>
     </font>
     <font>
       <strike val="true"/>
     </font>
     <font>
+      <color rgb="00ffd700"/>
+      <strike val="true"/>
+    </font>
+    <font>
       <u val="single"/>
     </font>
     <font>
+      <color rgb="0000ffff"/>
+      <u val="single"/>
+    </font>
+    <font>
       <u val="double"/>
     </font>
     <font>
+      <color rgb="00c0c0c0"/>
+      <u val="double"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
     </font>
     <font>
@@ -200,19 +223,34 @@
       <sz val="20"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <b val="true"/>
       <i val="true"/>
       <sz val="20"/>
     </font>
     <font>
+      <b val="true"/>
       <i val="true"/>
       <sz val="20"/>
       <strike val="true"/>
     </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font>
+    <font>
+      <b val="true"/>
+    </font>
+    <font>
+      <b val="true"/>
+    </font>
+    <font>
+      <b val="true"/>
+    </font>
+    <font>
+      <b val="true"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="16"/>
     </font>
     <font>
@@ -222,174 +260,270 @@
       <u val="double"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="18"/>
       <u val="double"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="ff0000ff"/>
+      <sz val="18"/>
+      <color rgb="000000ff"/>
       <u val="double"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="00008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="00ff0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
-    <border>
-      <left style=""/>
-      <right/>
-      <top style=""/>
-      <bottom style=""/>
+  <borders count="25">
+    <border>
+      <left style="">
+        <color/>
+      </left>
+      <right style="">
+        <color/>
+      </right>
+      <top style="">
+        <color/>
+      </top>
+      <bottom style="">
+        <color/>
+      </bottom>
       <diagonal style=""/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thin">
         <color rgb="00000000"/>
       </left>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
+      <left style="thin">
+        <color rgb="000000ff"/>
+      </left>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="00000000"/>
       </right>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
+      <right style="medium">
+        <color rgb="00008000"/>
+      </right>
+    </border>
+    <border>
       <top style="dashed">
         <color rgb="00000000"/>
       </top>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
+      <top style="dashed">
+        <color rgb="00ffd700"/>
+      </top>
+    </border>
+    <border>
       <bottom style="dotted">
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border diagonalDown="false" diagonalUp="true">
-      <diagonal style="thick">
+    <border>
+      <bottom style="dotted">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border diagonalUp="true">
+      <diagonal style="hair">
         <color rgb="00000000"/>
       </diagonal>
     </border>
-    <border diagonalDown="true" diagonalUp="false">
-      <diagonal style="double">
+    <border diagonalDown="true">
+      <diagonal style="mediumDashed">
         <color rgb="00000000"/>
       </diagonal>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thin">
         <color rgb="00000000"/>
       </left>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thin">
         <color rgb="00000000"/>
       </left>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
+      <left style="thin">
+        <color rgb="00ff0000"/>
+      </left>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="00000000"/>
       </right>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <right style="thin">
         <color rgb="00000000"/>
       </right>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
+      <right style="thin">
+        <color rgb="00ff0000"/>
+      </right>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="00ff0000"/>
       </left>
       <top style="thin">
         <color rgb="00000000"/>
       </top>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="00ff0000"/>
       </right>
       <top style="thin">
         <color rgb="00000000"/>
       </top>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="00ff0000"/>
+      </left>
+      <top style="thin">
+        <color rgb="00ff0000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="00ff0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00ff0000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00ff0000"/>
       </left>
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="00ff0000"/>
       </right>
       <bottom style="thin">
         <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00ff0000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="00ff0000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="00ff0000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="00ff0000"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="true" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="true" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="true" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
@@ -400,24 +534,24 @@
       <alignment shrinkToFit="true"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="true" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="true" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="true" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="true" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="true" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="true" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="true" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="true" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="true" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
@@ -436,42 +570,58 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment wrapText="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment wrapText="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment wrapText="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment wrapText="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment wrapText="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment wrapText="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment wrapText="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <alignment wrapText="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="true" applyAlignment="true" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <alignment wrapText="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false" quotePrefix="false" pivotButton="false">
       <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
@@ -489,6 +639,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -787,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -795,126 +982,124 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="7">
+      <c r="G1" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="H1" t="s" s="8">
+      <c r="H1" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="J1" t="s" s="11">
+      <c r="J1" t="s" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="12">
+      <c r="A2" t="s" s="14">
         <v>11</v>
       </c>
-      <c r="B2" t="s" s="13">
+      <c r="B2" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="14">
+      <c r="C2" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="15">
+      <c r="D2" t="s" s="17">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="16">
+      <c r="E2" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="F2" t="s" s="17">
+      <c r="F2" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="18">
+      <c r="G2" t="s" s="20">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="19">
+      <c r="H2" t="s" s="21">
         <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="20">
+      <c r="B3" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="21">
+      <c r="D3" t="s" s="23">
         <v>19</v>
       </c>
-      <c r="F3" t="s" s="22">
+      <c r="F3" t="s" s="24">
         <v>20</v>
       </c>
-      <c r="H3" t="s" s="23">
+      <c r="H3" t="s" s="25">
         <v>21</v>
       </c>
-      <c r="J3" t="s" s="24">
+      <c r="L3" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="L3" t="s" s="25">
+      <c r="M3" t="s" s="27">
         <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="26">
+      <c r="A5" t="s" s="28">
         <v>24</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="29">
         <v>1.23</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="30">
         <v>1.23</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="31">
         <v>1.23</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="32">
         <v>1234567890.1229999</v>
       </c>
-      <c r="G5" t="s" s="31">
+      <c r="G5" t="s" s="33">
         <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="36">
+      <c r="B7" t="s" s="42">
         <v>26</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
+      <c r="C7" s="43"/>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="37"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -149,6 +149,12 @@
       <t>name</t>
     </r>
   </si>
+  <si>
+    <t>Kartinka 1</t>
+  </si>
+  <si>
+    <t>Picture 2</t>
+  </si>
 </sst>
 </file>
 
@@ -643,36 +649,166 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1425000" cy="1425000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="1" name="Kartinka 1"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:xfrm>
+          <a:ext cx="32" cy="32"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1710000" cy="1900000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="21000000"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304000" cy="304000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Line 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm/>
+        <a:prstGeom prst="line"/>
+        <a:ln>
+          <a:solidFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1140000" cy="380000"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19800000"/>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:solidFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="1" anchor="just"/>
+        <a:p>
+          <a:r>
+            <a:rPr b="1" strike="sngStrike" u="dbl" sz="1200"/>
+            <a:t>Privet Privet Privet Privet</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Ellipse2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm/>
+        <a:prstGeom prst="ellipse"/>
+        <a:ln>
+          <a:solidFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1095,6 +1231,21 @@
       <c r="B8" s="44"/>
       <c r="C8" s="45"/>
     </row>
+    <row r="11">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B7:C8"/>
